--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3416619.851430171</v>
+        <v>3520853.559823618</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7838714.313745718</v>
+        <v>7847627.204997323</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>36.87430119104017</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>101.6776008132108</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.75769145492396</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>7.063277872690011</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>334.8573092336497</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>108.9812949757281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>81.92744135070117</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1110,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>282.4020786633915</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20.47554896769155</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>321.4018336977181</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>119.8620943363776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>51.01442342510421</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,7 +1347,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.0209726907674</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>140.2569953879509</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2008,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>166.6849833227417</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701354</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>266.8982277297035</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>13.37642554686328</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.08971311158712</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2998,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>76.94227792014347</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3089,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3193,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>220.6346102953135</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>134.1343006978452</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>109.1623230749906</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>158.0416127628559</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>66.43694060668919</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>52.54490042790919</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>39.83255574579442</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1638.360256348809</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="C2" t="n">
-        <v>1269.397739408397</v>
+        <v>1280.102524460918</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>921.8368258541673</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>536.048573255923</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649822</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>2415.099428388742</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>2024.96009641293</v>
+        <v>1649.065041401329</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1464.823389952861</v>
+        <v>788.8276219385416</v>
       </c>
       <c r="C4" t="n">
-        <v>1464.823389952861</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D4" t="n">
-        <v>1464.823389952861</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.823389952861</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952861</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193525</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763051</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>2533.219997888694</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>2278.535509682808</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W4" t="n">
-        <v>1989.118339645847</v>
+        <v>1237.609751980089</v>
       </c>
       <c r="X4" t="n">
-        <v>1761.12878874783</v>
+        <v>1009.620201082072</v>
       </c>
       <c r="Y4" t="n">
-        <v>1540.336209604299</v>
+        <v>788.8276219385416</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>3105.233036999167</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.5472171493652</v>
+        <v>396.7094242895083</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>396.7094242895083</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>246.5927848771726</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>246.5927848771726</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>246.5927848771726</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>246.5927848771726</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4746,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4756,19 +4758,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1138.756966329856</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1138.756966329856</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>849.3397962928954</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X7" t="n">
-        <v>849.3397962928954</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y7" t="n">
-        <v>628.5472171493652</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1252.833343223196</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C8" t="n">
-        <v>1252.833343223196</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D8" t="n">
-        <v>1252.833343223196</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287318</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.1278029579779</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="C10" t="n">
-        <v>431.1278029579779</v>
+        <v>511.7013404397344</v>
       </c>
       <c r="D10" t="n">
-        <v>431.1278029579779</v>
+        <v>361.5847010273986</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>361.5847010273986</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>651.920382101508</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.1278029579779</v>
+        <v>680.6375233676413</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5042,19 +5044,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5069,19 +5071,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5278,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1002.610462896757</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>781.8178837532264</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1520.017183831735</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1230.600013794774</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1002.610462896757</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>781.8178837532264</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5968,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6008,10 +6010,10 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492579</v>
@@ -6020,16 +6022,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6071,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2204.627616639638</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C25" t="n">
-        <v>2588.787486630498</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>2588.787486630498</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>2588.787486630498</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>2588.787486630498</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>2421.591387345378</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1707.866911086565</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1707.866911086565</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,10 +6262,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6312,13 +6314,13 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2302.197907186053</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2082.596442208995</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1793.521215553193</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1538.836727347306</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1249.419557310345</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1021.430006412328</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>800.6374272687975</v>
       </c>
     </row>
     <row r="32">
@@ -6737,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.597837787969</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
         <v>779.6143379232838</v>
@@ -7129,16 +7131,16 @@
         <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.987318831765</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.570148794804</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.580597896787</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190825</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1341.109076706663</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>1113.119525808646</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>370.6908545557483</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>211.0329012241561</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.811007491169903</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>85.45266000108629</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>85.45266000108631</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219412</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>19.28624665954061</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>273.1465727897277</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.52575990662524</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>104.0840080815011</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>65.54986409393067</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>45.69767948409211</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>109.4223302771042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>128.4813855737351</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>152.1477127454056</v>
       </c>
     </row>
     <row r="41">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>112.9792378643596</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>686508.6196132187</v>
+        <v>695421.5108648249</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.10421944</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.10421944</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132554</v>
@@ -26338,22 +26340,22 @@
         <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.17909312017</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768945</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26436,22 +26438,22 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
+        <v>9947.144321768874</v>
+      </c>
+      <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="J4" t="n">
-        <v>9947.144321768896</v>
-      </c>
       <c r="K4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768961</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766349.2282576439</v>
+        <v>-586156.3292985236</v>
       </c>
       <c r="C6" t="n">
-        <v>562395.517469949</v>
+        <v>358956.7758578431</v>
       </c>
       <c r="D6" t="n">
         <v>562395.5174699489</v>
       </c>
       <c r="E6" t="n">
-        <v>310128.4687602241</v>
+        <v>310128.4687602239</v>
       </c>
       <c r="F6" t="n">
         <v>635540.9305675793</v>
       </c>
       <c r="G6" t="n">
+        <v>635540.9305675793</v>
+      </c>
+      <c r="H6" t="n">
         <v>635540.9305675795</v>
-      </c>
-      <c r="H6" t="n">
-        <v>635540.9305675792</v>
       </c>
       <c r="I6" t="n">
         <v>635540.9305675795</v>
       </c>
       <c r="J6" t="n">
-        <v>418009.7281703018</v>
+        <v>467935.7527575967</v>
       </c>
       <c r="K6" t="n">
+        <v>586430.8378615249</v>
+      </c>
+      <c r="L6" t="n">
+        <v>635540.9305675796</v>
+      </c>
+      <c r="M6" t="n">
+        <v>550485.9026320672</v>
+      </c>
+      <c r="N6" t="n">
         <v>635540.9305675792</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>635540.9305675795</v>
+      </c>
+      <c r="P6" t="n">
         <v>635540.9305675793</v>
-      </c>
-      <c r="M6" t="n">
-        <v>550485.9026320677</v>
-      </c>
-      <c r="N6" t="n">
-        <v>635540.9305675791</v>
-      </c>
-      <c r="O6" t="n">
-        <v>635540.9305675792</v>
-      </c>
-      <c r="P6" t="n">
-        <v>635540.9305675791</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>317.8087404296428</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>305.1984449285006</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>279.459720463901</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30.41558253735786</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>240.2596737416849</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>62.82757356361961</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>3.8097595422214</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>361.4548211045702</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>64.83610495833545</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>26.57186831019155</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>94.40662459782703</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29095,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-5.142369289011372e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,19 +31840,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.7456072667729</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32485,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32549,25 +32551,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32789,13 +32791,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33032,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>567.5882829286713</v>
+        <v>361.5531172119654</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33187,7 +33189,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>197.6412480909884</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,16 +33979,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34208,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34378,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34445,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>574.6535388222619</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>546.4575832202792</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.7638331807514</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>425.454249006653</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36835,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.65947400496688</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>432.0572943778175</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3520853.559823618</v>
+        <v>3516799.434064239</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>101.6776008132108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>53.43995086960383</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>7.063277872690011</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>334.8573092336497</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>109.6870817625072</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>77.31354443380461</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>81.92744135070117</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>275.8041337882021</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>321.4018336977181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>51.01442342510421</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>142.6955872305738</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.0209726907674</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>96.02642072444128</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>45.17596778975079</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>140.2569953879509</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>82.52140782073276</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>166.6849833227417</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701354</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>266.8982277297035</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852945</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>13.37642554686328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>76.94227792014347</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>134.1343006978452</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.43694060668919</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>52.54490042790919</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.83255574579442</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1649.065041401329</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="C2" t="n">
-        <v>1280.102524460918</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="D2" t="n">
-        <v>921.8368258541673</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="E2" t="n">
-        <v>536.048573255923</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>116.8908811564453</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>105.2265349211383</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>105.2265349211383</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4336,7 +4336,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2022.530799662409</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1649.065041401329</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1649.065041401329</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>788.8276219385416</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C4" t="n">
-        <v>619.8914390106347</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1237.609751980089</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>1009.620201082072</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>788.8276219385416</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1506.363819949361</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>177.307148515524</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y5" t="n">
-        <v>1892.963660013483</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>396.7094242895083</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C7" t="n">
-        <v>396.7094242895083</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D7" t="n">
-        <v>246.5927848771726</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E7" t="n">
-        <v>246.5927848771726</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>246.5927848771726</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>246.5927848771726</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>617.5020034330385</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>396.7094242895083</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1303.529887077737</v>
+        <v>2212.771568013854</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1843.809051073443</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1485.543352466692</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1099.755099868448</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539435</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008241</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>1690.129727141859</v>
+        <v>2599.371408077976</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.6375233676413</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>511.7013404397344</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>361.5847010273986</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>361.5847010273986</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1783.157591289933</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1783.157591289933</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X10" t="n">
-        <v>680.6375233676413</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.6375233676413</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>697.5276345711974</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711974</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,34 +5290,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532264</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>1002.610462896757</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>781.8178837532264</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5600,22 +5600,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1520.017183831735</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1230.600013794774</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1002.610462896757</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>781.8178837532264</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5992,19 +5992,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,10 +6016,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1707.866911086565</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6466,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2302.197907186053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2082.596442208995</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1793.521215553193</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1538.836727347306</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1249.419557310345</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1021.430006412328</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>800.6374272687975</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6736,7 +6736,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>335.9629114732377</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>189.0729639753273</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7022,22 +7022,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7259,19 +7259,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>984.5467179762944</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>815.6105350483875</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>665.4938956360518</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>517.5808020536587</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>370.6908545557483</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>1166.195182806534</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
         <v>407.9027098310023</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241561</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.811007491169903</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>190.1580536648029</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>172.2294825375375</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>85.45266000108629</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>85.45266000108631</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28624665954061</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>61.40075786968291</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>104.0840080815011</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>45.69767948409211</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.1477127454056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>112.9792378643596</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.10421944</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244621</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244626</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244625</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>203438.741612106</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768861</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26438,10 +26438,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768874</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768934</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-586156.3292985236</v>
+        <v>-586156.3292985241</v>
       </c>
       <c r="C6" t="n">
-        <v>358956.7758578431</v>
+        <v>358956.7758578432</v>
       </c>
       <c r="D6" t="n">
-        <v>562395.5174699489</v>
+        <v>562395.5174699486</v>
       </c>
       <c r="E6" t="n">
-        <v>310128.4687602239</v>
+        <v>309781.0895058669</v>
       </c>
       <c r="F6" t="n">
-        <v>635540.9305675793</v>
+        <v>635193.5513132222</v>
       </c>
       <c r="G6" t="n">
-        <v>635540.9305675793</v>
+        <v>635193.5513132226</v>
       </c>
       <c r="H6" t="n">
-        <v>635540.9305675795</v>
+        <v>635193.5513132223</v>
       </c>
       <c r="I6" t="n">
-        <v>635540.9305675795</v>
+        <v>635193.5513132223</v>
       </c>
       <c r="J6" t="n">
-        <v>467935.7527575967</v>
+        <v>467588.3735032401</v>
       </c>
       <c r="K6" t="n">
-        <v>586430.8378615249</v>
+        <v>586083.4586071678</v>
       </c>
       <c r="L6" t="n">
-        <v>635540.9305675796</v>
+        <v>635193.5513132225</v>
       </c>
       <c r="M6" t="n">
-        <v>550485.9026320672</v>
+        <v>550138.5233777104</v>
       </c>
       <c r="N6" t="n">
-        <v>635540.9305675792</v>
+        <v>635193.5513132222</v>
       </c>
       <c r="O6" t="n">
-        <v>635540.9305675795</v>
+        <v>635193.5513132223</v>
       </c>
       <c r="P6" t="n">
-        <v>635540.9305675793</v>
+        <v>635193.5513132225</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>190.816623302254</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>305.1984449285006</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>12.26996180286667</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27593,13 +27593,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>279.459720463901</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>30.41558253735786</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>184.9206826248133</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276456</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>62.82757356361961</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>131.0719119535093</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>64.83610495833545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>94.40662459782703</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>47.07343810086812</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,28 +32785,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,10 +33034,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>361.5531172119654</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33046,7 +33046,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33186,10 +33186,10 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>453.4978307576758</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202792</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>322.3705304098922</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,10 +36682,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>219.4190832899471</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>314.9434509778017</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3516799.434064239</v>
+        <v>3518559.964367024</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>270.8416991175617</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.43995086960383</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>39.11967103559132</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222606</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>109.6870817625072</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>77.31354443380461</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>275.8041337882021</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>218.8748435506855</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>71.67037196991754</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>142.6955872305738</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174112</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>96.02642072444128</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>45.17596778975079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1897,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>87.21471514852945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8767859460529</v>
+        <v>1449.50507480484</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8767859460529</v>
+        <v>1080.542557864428</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8767859460529</v>
+        <v>722.2768592576774</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8767859460529</v>
+        <v>336.4886066594332</v>
       </c>
       <c r="F2" t="n">
-        <v>116.8908811564453</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>105.2265349211383</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>105.2265349211383</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4336,7 +4336,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218646</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460529</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657491</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378422</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>397.5455328255065</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>249.6324392431134</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1074.740665716806</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1074.740665716806</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>1074.740665716806</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959889</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565137</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624726</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179753</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E5" t="n">
-        <v>599.325099419731</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="F5" t="n">
-        <v>188.3391946301235</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>177.307148515524</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629259</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4643,13 +4643,13 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.6594280995014</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>294.7232451715945</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>144.6066057592588</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297411</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2212.771568013854</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1843.809051073443</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1485.543352466692</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1099.755099868448</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.5441625467829</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2599.371408077976</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1783.157591289933</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1783.157591289933</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.054724415577</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1494.054724415577</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5029,55 +5029,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5105,40 +5105,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5664,10 +5664,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7314,19 +7314,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>190.1580536648029</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>172.2294825375375</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>61.40075786968291</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>144.5956654067403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132552</v>
@@ -26334,10 +26334,10 @@
         <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
@@ -26349,13 +26349,13 @@
         <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.1790931201</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768861</v>
+        <v>9947.144321768979</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768994</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26441,7 +26441,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768934</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-586156.3292985241</v>
+        <v>-586156.3292985237</v>
       </c>
       <c r="C6" t="n">
         <v>358956.7758578432</v>
       </c>
       <c r="D6" t="n">
-        <v>562395.5174699486</v>
+        <v>562395.5174699489</v>
       </c>
       <c r="E6" t="n">
-        <v>309781.0895058669</v>
+        <v>310093.7308347889</v>
       </c>
       <c r="F6" t="n">
-        <v>635193.5513132222</v>
+        <v>635506.1926421437</v>
       </c>
       <c r="G6" t="n">
-        <v>635193.5513132226</v>
+        <v>635506.1926421435</v>
       </c>
       <c r="H6" t="n">
-        <v>635193.5513132223</v>
+        <v>635506.1926421436</v>
       </c>
       <c r="I6" t="n">
-        <v>635193.5513132223</v>
+        <v>635506.1926421435</v>
       </c>
       <c r="J6" t="n">
-        <v>467588.3735032401</v>
+        <v>467901.014832161</v>
       </c>
       <c r="K6" t="n">
-        <v>586083.4586071678</v>
+        <v>586396.0999360891</v>
       </c>
       <c r="L6" t="n">
-        <v>635193.5513132225</v>
+        <v>635506.1926421438</v>
       </c>
       <c r="M6" t="n">
-        <v>550138.5233777104</v>
+        <v>550451.164706632</v>
       </c>
       <c r="N6" t="n">
-        <v>635193.5513132222</v>
+        <v>635506.1926421438</v>
       </c>
       <c r="O6" t="n">
-        <v>635193.5513132223</v>
+        <v>635506.1926421436</v>
       </c>
       <c r="P6" t="n">
-        <v>635193.5513132225</v>
+        <v>635506.1926421436</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>190.8166233022539</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973548</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>190.8166233022538</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000385</v>
-      </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>136.0343466241497</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>12.26996180286667</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>247.1074830856093</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>108.8774149194509</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>184.9206826248133</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12041821276456</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>131.0719119535093</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.8774149194494</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>73.08464294440324</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>47.07343810086812</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28146,13 +28146,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>403.852496713802</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>173.8200325543366</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>272.5107846304687</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>35.9785935799776</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
